--- a/sitedb/smallcell data/milestone update table notes.xlsx
+++ b/sitedb/smallcell data/milestone update table notes.xlsx
@@ -8,24 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python Project\005 VHA Macro site workflow\Django-Workflow\sitedb\smallcell data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{149511E0-6677-4667-AD43-11DD4E45CD2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8489ECEB-574B-4002-B288-864D34578ED1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{254301D2-717F-4587-B902-FE4677440A6D}"/>
+    <workbookView xWindow="28680" yWindow="-6645" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{254301D2-717F-4587-B902-FE4677440A6D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="v1" sheetId="1" r:id="rId1"/>
+    <sheet name="v2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="61">
   <si>
     <t>neighbouring_sites</t>
   </si>
@@ -136,6 +145,78 @@
   </si>
   <si>
     <t xml:space="preserve">ric_checklist', 'isn_report_and_upload', 'apply_cr_for_phase2_paramters', 'phase2_parameters_kpi_monitoring', 'rf_script_for_phase2_paramters', 'dsa7_report', </t>
+  </si>
+  <si>
+    <t>repowering_up</t>
+  </si>
+  <si>
+    <t>inter_transmission_merge</t>
+  </si>
+  <si>
+    <t>rfi</t>
+  </si>
+  <si>
+    <t>rfnsa_check</t>
+  </si>
+  <si>
+    <t>bbu_status_check</t>
+  </si>
+  <si>
+    <t>shutdown_cr</t>
+  </si>
+  <si>
+    <t>ssv_pre_cutover</t>
+  </si>
+  <si>
+    <t>naming_convention</t>
+  </si>
+  <si>
+    <t>bbu_cutover_cr</t>
+  </si>
+  <si>
+    <t>bbu_cutover</t>
+  </si>
+  <si>
+    <t>site_list_check</t>
+  </si>
+  <si>
+    <t>overlap_simulation</t>
+  </si>
+  <si>
+    <t>acma_update</t>
+  </si>
+  <si>
+    <t>prs_cellgroup</t>
+  </si>
+  <si>
+    <t>activation_cr</t>
+  </si>
+  <si>
+    <t>emeg_check</t>
+  </si>
+  <si>
+    <t>cell_activation</t>
+  </si>
+  <si>
+    <t>ssv_post_cutover</t>
+  </si>
+  <si>
+    <t>service_notification</t>
+  </si>
+  <si>
+    <t>isn_upload</t>
+  </si>
+  <si>
+    <t>dsa7_upload</t>
+  </si>
+  <si>
+    <t xml:space="preserve">repowering_up', 'inter_transmission_merge', 'rfi', 'rfnsa_check', 'acma_check', 'bbu_status_check', 'shutdown_cr', 'ssv_pre_cutover', 'naming_convention', 'bbu_cutover_cr', 'bbu_cutover', 'site_list_check', 'overlap_simulation', 'pci_conflict', 'rfnsa_update', 'acma_update', 'prs_cellgroup', 'rf_script', 'activation_cr', 'emeg_check', </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cell_activation', 'ssv_post_cutover', </t>
+  </si>
+  <si>
+    <t xml:space="preserve">service_notification', 'isn_upload', 'dsa7_upload', </t>
   </si>
 </sst>
 </file>
@@ -195,13 +276,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -518,8 +600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A316A246-3FD3-4CAF-B271-CC05AD9D79C3}">
   <dimension ref="A1:AH36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -997,4 +1079,269 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EA9701C-FFA2-4714-A1D6-D16ED53DE12D}">
+  <dimension ref="A2:F26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U16" sqref="U16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.77734375" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="str">
+        <f>"'"&amp;A2&amp;"', "</f>
+        <v xml:space="preserve">'repowering_up', </v>
+      </c>
+      <c r="F2" t="str">
+        <f>B2&amp;B3&amp;B4&amp;B5&amp;B6&amp;B7&amp;B8&amp;B9&amp;B10&amp;B11&amp;B12&amp;B13&amp;B14&amp;B15&amp;B16&amp;B17&amp;B18&amp;B19&amp;B20&amp;B21</f>
+        <v xml:space="preserve">'repowering_up', 'inter_transmission_merge', 'rfi', 'rfnsa_check', 'acma_check', 'bbu_status_check', 'shutdown_cr', 'ssv_pre_cutover', 'naming_convention', 'bbu_cutover_cr', 'bbu_cutover', 'site_list_check', 'overlap_simulation', 'pci_conflict', 'rfnsa_update', 'acma_update', 'prs_cellgroup', 'rf_script', 'activation_cr', 'emeg_check', </v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="str">
+        <f>"'"&amp;A3&amp;"', "</f>
+        <v xml:space="preserve">'inter_transmission_merge', </v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" ref="B4:B26" si="0">"'"&amp;A4&amp;"', "</f>
+        <v xml:space="preserve">'rfi', </v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">'rfnsa_check', </v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">'acma_check', </v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">'bbu_status_check', </v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">'shutdown_cr', </v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">'ssv_pre_cutover', </v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">'naming_convention', </v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">'bbu_cutover_cr', </v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">'bbu_cutover', </v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">'site_list_check', </v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">'overlap_simulation', </v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">'pci_conflict', </v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">'rfnsa_update', </v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">'acma_update', </v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">'prs_cellgroup', </v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">'rf_script', </v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">'activation_cr', </v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">'emeg_check', </v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">'cell_activation', </v>
+      </c>
+      <c r="F22" t="str">
+        <f>B22&amp;B23</f>
+        <v xml:space="preserve">'cell_activation', 'ssv_post_cutover', </v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">'ssv_post_cutover', </v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">'service_notification', </v>
+      </c>
+      <c r="F24" t="str">
+        <f>B24&amp;B25&amp;B26</f>
+        <v xml:space="preserve">'service_notification', 'isn_upload', 'dsa7_upload', </v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">'isn_upload', </v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">'dsa7_upload', </v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>